--- a/src/test/resources/test4.xlsx
+++ b/src/test/resources/test4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15030" windowHeight="3720"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15030" windowHeight="4650"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,9 @@
       <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>-9</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
